--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1439D81-BA07-4E68-AC21-BCEAA15F0195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DAC42-B907-430E-9863-647D773759C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
+    <workbookView xWindow="-28320" yWindow="3915" windowWidth="21600" windowHeight="11505" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>Array Size</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Thread - 8</t>
+  </si>
+  <si>
+    <t>[ms]</t>
+  </si>
+  <si>
+    <t>[sec]</t>
   </si>
 </sst>
 </file>
@@ -65,15 +71,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -437,26 +455,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -468,6 +486,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,13 +510,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -536,13 +572,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -629,64 +671,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>5.8250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>1.325E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.5</c:v>
+                  <c:v>1.6750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>1.8249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.5</c:v>
+                  <c:v>1.7250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>2.0750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>1.975E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>2.6249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.5</c:v>
+                  <c:v>2.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.5</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>3.075E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.5</c:v>
+                  <c:v>3.5749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.5</c:v>
+                  <c:v>3.5249999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.5</c:v>
+                  <c:v>3.2750000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,13 +755,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -806,64 +854,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>3.2499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>4.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5</c:v>
+                  <c:v>8.2500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9.2499999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5</c:v>
+                  <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.5</c:v>
+                  <c:v>1.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>1.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.5</c:v>
+                  <c:v>1.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1.95E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.5</c:v>
+                  <c:v>1.55E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.5</c:v>
+                  <c:v>1.525E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23</c:v>
+                  <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.5</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,13 +938,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -983,64 +1037,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.2500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>1.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>1.025E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13</c:v>
+                  <c:v>1.225E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.5</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15.5</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,13 +1121,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1160,64 +1220,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>6.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>1.025E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>1.4500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.5</c:v>
+                  <c:v>1.0749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.5</c:v>
+                  <c:v>1.225E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14</c:v>
+                  <c:v>1.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.5</c:v>
+                  <c:v>1.175E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,9 +1316,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1272,9 +1332,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1303,9 +1362,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1331,9 +1390,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1368,17 +1426,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1441,35 +1510,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1477,26 +1544,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1505,9 +1580,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1526,14 +1600,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1542,45 +1608,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1592,31 +1648,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1634,21 +1688,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1658,20 +1709,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1685,14 +1736,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1706,9 +1757,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1722,12 +1772,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1739,9 +1783,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1756,14 +1800,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1775,14 +1818,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1794,14 +1837,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1810,14 +1852,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1825,7 +1866,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1838,11 +1879,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1850,14 +1901,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1869,12 +1920,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1890,7 +1948,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1899,9 +1956,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1911,7 +1967,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1919,9 +1975,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1932,9 +1988,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1946,12 +2001,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1961,15 +2010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2294,23 +2343,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24E47AE-0AB6-47AB-B073-B50DBA22BCC6}">
-  <dimension ref="B1:W27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="3">
@@ -2374,184 +2424,189 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="8"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
       </c>
       <c r="F4" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J4" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M4" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N4" s="5">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="O4" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P4" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>22</v>
+      </c>
+      <c r="R4" s="5">
         <v>30</v>
       </c>
-      <c r="Q4" s="5">
-        <v>25</v>
-      </c>
-      <c r="R4" s="5">
-        <v>24</v>
-      </c>
       <c r="S4" s="5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="T4" s="5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U4" s="5">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="V4" s="5">
-        <v>37</v>
-      </c>
-      <c r="W4" s="23">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="W4" s="17">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1">
         <v>8</v>
-      </c>
-      <c r="L5" s="1">
-        <v>9</v>
       </c>
       <c r="M5" s="1">
         <v>9</v>
       </c>
       <c r="N5" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S5" s="1">
         <v>16</v>
       </c>
       <c r="T5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U5" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V5" s="1">
-        <v>23</v>
-      </c>
-      <c r="W5" s="24">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="W5" s="18">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -2563,22 +2618,22 @@
         <v>6</v>
       </c>
       <c r="K6" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>8</v>
       </c>
       <c r="N6" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P6" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="1">
         <v>11</v>
@@ -2587,186 +2642,192 @@
         <v>9</v>
       </c>
       <c r="S6" s="1">
+        <v>13</v>
+      </c>
+      <c r="T6" s="1">
+        <v>14</v>
+      </c>
+      <c r="U6" s="1">
+        <v>11</v>
+      </c>
+      <c r="V6" s="1">
+        <v>13</v>
+      </c>
+      <c r="W6" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4</v>
+      </c>
+      <c r="I7" s="15">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15">
+        <v>9</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7</v>
+      </c>
+      <c r="L7" s="15">
+        <v>9</v>
+      </c>
+      <c r="M7" s="15">
         <v>10</v>
       </c>
-      <c r="T6" s="1">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="N7" s="15">
+        <v>9</v>
+      </c>
+      <c r="O7" s="15">
+        <v>9</v>
+      </c>
+      <c r="P7" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>9</v>
+      </c>
+      <c r="R7" s="15">
+        <v>16</v>
+      </c>
+      <c r="S7" s="15">
+        <v>12</v>
+      </c>
+      <c r="T7" s="15">
         <v>13</v>
       </c>
-      <c r="V6" s="1">
+      <c r="U7" s="15">
+        <v>12</v>
+      </c>
+      <c r="V7" s="15">
         <v>17</v>
       </c>
-      <c r="W6" s="24">
-        <v>13</v>
+      <c r="W7" s="19">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>55</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18">
-        <v>3</v>
-      </c>
-      <c r="F7" s="18">
-        <v>5</v>
-      </c>
-      <c r="G7" s="18">
-        <v>4</v>
-      </c>
-      <c r="H7" s="18">
-        <v>4</v>
-      </c>
-      <c r="I7" s="18">
-        <v>9</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="G9" s="5">
         <v>6</v>
       </c>
-      <c r="K7" s="18">
+      <c r="H9" s="5">
         <v>8</v>
-      </c>
-      <c r="L7" s="18">
-        <v>7</v>
-      </c>
-      <c r="M7" s="18">
-        <v>6</v>
-      </c>
-      <c r="N7" s="18">
-        <v>7</v>
-      </c>
-      <c r="O7" s="18">
-        <v>12</v>
-      </c>
-      <c r="P7" s="18">
-        <v>8</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>10</v>
-      </c>
-      <c r="R7" s="18">
-        <v>11</v>
-      </c>
-      <c r="S7" s="18">
-        <v>11</v>
-      </c>
-      <c r="T7" s="18">
-        <v>13</v>
-      </c>
-      <c r="U7" s="18">
-        <v>13</v>
-      </c>
-      <c r="V7" s="18">
-        <v>11</v>
-      </c>
-      <c r="W7" s="25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>77</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>9</v>
       </c>
       <c r="I9" s="5">
         <v>13</v>
       </c>
       <c r="J9" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L9" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M9" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N9" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O9" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>28</v>
+      </c>
+      <c r="R9" s="5">
+        <v>34</v>
+      </c>
+      <c r="S9" s="5">
+        <v>32</v>
+      </c>
+      <c r="T9" s="5">
+        <v>25</v>
+      </c>
+      <c r="U9" s="5">
+        <v>34</v>
+      </c>
+      <c r="V9" s="5">
+        <v>34</v>
+      </c>
+      <c r="W9" s="17">
         <v>30</v>
       </c>
-      <c r="Q9" s="5">
-        <v>24</v>
-      </c>
-      <c r="R9" s="5">
-        <v>27</v>
-      </c>
-      <c r="S9" s="5">
-        <v>28</v>
-      </c>
-      <c r="T9" s="5">
-        <v>29</v>
-      </c>
-      <c r="U9" s="5">
-        <v>38</v>
-      </c>
-      <c r="V9" s="5">
-        <v>40</v>
-      </c>
-      <c r="W9" s="23">
-        <v>37</v>
-      </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
       <c r="D10" s="1">
@@ -2776,25 +2837,25 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="1">
-        <v>5</v>
-      </c>
       <c r="H10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1">
         <v>10</v>
@@ -2803,48 +2864,49 @@
         <v>10</v>
       </c>
       <c r="O10" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R10" s="1">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1">
         <v>16</v>
       </c>
-      <c r="S10" s="1">
-        <v>19</v>
-      </c>
       <c r="T10" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U10" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="V10" s="1">
-        <v>23</v>
-      </c>
-      <c r="W10" s="24">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="W10" s="18">
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2853,754 +2915,1102 @@
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L11" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N11" s="1">
         <v>7</v>
       </c>
       <c r="O11" s="1">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>12</v>
+      </c>
+      <c r="R11" s="1">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1">
+        <v>9</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9</v>
+      </c>
+      <c r="U11" s="1">
+        <v>12</v>
+      </c>
+      <c r="V11" s="1">
         <v>10</v>
       </c>
-      <c r="P11" s="1">
+      <c r="W11" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>5</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4</v>
+      </c>
+      <c r="K12" s="15">
+        <v>9</v>
+      </c>
+      <c r="L12" s="15">
+        <v>7</v>
+      </c>
+      <c r="M12" s="15">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15">
+        <v>9</v>
+      </c>
+      <c r="O12" s="15">
         <v>12</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="P12" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>12</v>
+      </c>
+      <c r="R12" s="15">
+        <v>19</v>
+      </c>
+      <c r="S12" s="15">
         <v>9</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T12" s="15">
+        <v>11</v>
+      </c>
+      <c r="U12" s="15">
+        <v>14</v>
+      </c>
+      <c r="V12" s="15">
+        <v>10</v>
+      </c>
+      <c r="W12" s="19">
         <v>9</v>
       </c>
-      <c r="S11" s="1">
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5">
+        <v>12</v>
+      </c>
+      <c r="J14" s="5">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5">
+        <v>16</v>
+      </c>
+      <c r="M14" s="5">
+        <v>17</v>
+      </c>
+      <c r="N14" s="5">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>26</v>
+      </c>
+      <c r="R14" s="5">
+        <v>30</v>
+      </c>
+      <c r="S14" s="5">
+        <v>29</v>
+      </c>
+      <c r="T14" s="5">
+        <v>30</v>
+      </c>
+      <c r="U14" s="5">
+        <v>43</v>
+      </c>
+      <c r="V14" s="5">
+        <v>38</v>
+      </c>
+      <c r="W14" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="T11" s="1">
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1">
+        <v>18</v>
+      </c>
+      <c r="S15" s="1">
+        <v>16</v>
+      </c>
+      <c r="T15" s="1">
+        <v>17</v>
+      </c>
+      <c r="U15" s="1">
+        <v>21</v>
+      </c>
+      <c r="V15" s="1">
+        <v>21</v>
+      </c>
+      <c r="W15" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1">
         <v>10</v>
       </c>
-      <c r="U11" s="1">
+      <c r="S16" s="1">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>11</v>
+      </c>
+      <c r="U16" s="1">
+        <v>14</v>
+      </c>
+      <c r="V16" s="1">
+        <v>9</v>
+      </c>
+      <c r="W16" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15">
+        <v>10</v>
+      </c>
+      <c r="G17" s="15">
+        <v>9</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4</v>
+      </c>
+      <c r="I17" s="15">
+        <v>12</v>
+      </c>
+      <c r="J17" s="15">
+        <v>6</v>
+      </c>
+      <c r="K17" s="15">
+        <v>5</v>
+      </c>
+      <c r="L17" s="15">
+        <v>6</v>
+      </c>
+      <c r="M17" s="15">
+        <v>7</v>
+      </c>
+      <c r="N17" s="15">
+        <v>8</v>
+      </c>
+      <c r="O17" s="15">
+        <v>12</v>
+      </c>
+      <c r="P17" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>9</v>
+      </c>
+      <c r="R17" s="15">
         <v>13</v>
       </c>
-      <c r="V11" s="1">
+      <c r="S17" s="15">
+        <v>13</v>
+      </c>
+      <c r="T17" s="15">
+        <v>13</v>
+      </c>
+      <c r="U17" s="15">
+        <v>13</v>
+      </c>
+      <c r="V17" s="15">
+        <v>9</v>
+      </c>
+      <c r="W17" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="28"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5">
+        <v>11</v>
+      </c>
+      <c r="J19" s="5">
+        <v>11</v>
+      </c>
+      <c r="K19" s="5">
         <v>14</v>
       </c>
-      <c r="W11" s="24">
-        <v>18</v>
+      <c r="L19" s="5">
+        <v>16</v>
+      </c>
+      <c r="M19" s="5">
+        <v>15</v>
+      </c>
+      <c r="N19" s="5">
+        <v>16</v>
+      </c>
+      <c r="O19" s="5">
+        <v>16</v>
+      </c>
+      <c r="P19" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>22</v>
+      </c>
+      <c r="R19" s="5">
+        <v>26</v>
+      </c>
+      <c r="S19" s="5">
+        <v>27</v>
+      </c>
+      <c r="T19" s="5">
+        <v>24</v>
+      </c>
+      <c r="U19" s="5">
+        <v>32</v>
+      </c>
+      <c r="V19" s="5">
+        <v>36</v>
+      </c>
+      <c r="W19" s="17">
+        <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="17">
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>10</v>
+      </c>
+      <c r="P20" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>12</v>
+      </c>
+      <c r="R20" s="1">
+        <v>13</v>
+      </c>
+      <c r="S20" s="1">
+        <v>14</v>
+      </c>
+      <c r="T20" s="1">
+        <v>13</v>
+      </c>
+      <c r="U20" s="1">
+        <v>19</v>
+      </c>
+      <c r="V20" s="1">
+        <v>20</v>
+      </c>
+      <c r="W20" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="18">
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="18">
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>12</v>
+      </c>
+      <c r="R21" s="1">
+        <v>8</v>
+      </c>
+      <c r="S21" s="1">
+        <v>9</v>
+      </c>
+      <c r="T21" s="1">
+        <v>10</v>
+      </c>
+      <c r="U21" s="1">
+        <v>12</v>
+      </c>
+      <c r="V21" s="1">
+        <v>12</v>
+      </c>
+      <c r="W21" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="18">
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21">
         <v>5</v>
       </c>
-      <c r="I12" s="18">
+      <c r="G22" s="21">
+        <v>3</v>
+      </c>
+      <c r="H22" s="21">
+        <v>3</v>
+      </c>
+      <c r="I22" s="21">
         <v>7</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J22" s="21">
+        <v>7</v>
+      </c>
+      <c r="K22" s="21">
+        <v>7</v>
+      </c>
+      <c r="L22" s="21">
+        <v>5</v>
+      </c>
+      <c r="M22" s="21">
+        <v>7</v>
+      </c>
+      <c r="N22" s="21">
         <v>6</v>
       </c>
-      <c r="K12" s="18">
+      <c r="O22" s="21">
+        <v>8</v>
+      </c>
+      <c r="P22" s="21">
         <v>7</v>
       </c>
-      <c r="L12" s="18">
+      <c r="Q22" s="21">
+        <v>12</v>
+      </c>
+      <c r="R22" s="21">
+        <v>10</v>
+      </c>
+      <c r="S22" s="21">
+        <v>9</v>
+      </c>
+      <c r="T22" s="21">
+        <v>12</v>
+      </c>
+      <c r="U22" s="21">
+        <v>12</v>
+      </c>
+      <c r="V22" s="21">
+        <v>11</v>
+      </c>
+      <c r="W22" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="18">
-        <v>8</v>
-      </c>
-      <c r="N12" s="18">
-        <v>6</v>
-      </c>
-      <c r="O12" s="18">
-        <v>14</v>
-      </c>
-      <c r="P12" s="18">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>8</v>
-      </c>
-      <c r="R12" s="18">
-        <v>11</v>
-      </c>
-      <c r="S12" s="18">
-        <v>16</v>
-      </c>
-      <c r="T12" s="18">
-        <v>12</v>
-      </c>
-      <c r="U12" s="18">
-        <v>15</v>
-      </c>
-      <c r="V12" s="18">
-        <v>18</v>
-      </c>
-      <c r="W12" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="22"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B24" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="23"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="25"/>
-    </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="28"/>
-    </row>
-    <row r="23" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="29">
+      <c r="C24" s="32">
         <f>AVERAGE(C4,C9,C14,C19)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="29">
-        <f t="shared" ref="D24:W27" si="0">AVERAGE(D4,D9,D14,D19)</f>
-        <v>78</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="29">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="H24" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J24" s="29">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="L24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M24" s="29">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="N24" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="P24" s="29">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Q24" s="29">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-      <c r="R24" s="29">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-      <c r="S24" s="29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="T24" s="29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="U24" s="29">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="V24" s="29">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="W24" s="29">
-        <f t="shared" si="0"/>
-        <v>36.5</v>
+      <c r="D24" s="32">
+        <f>AVERAGE(D4,D9,D14,D19)/1000</f>
+        <v>5.8250000000000003E-2</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" ref="E24:W27" si="0">AVERAGE(E4,E9,E14,E19)/1000</f>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="G24" s="32">
+        <f t="shared" si="0"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="H24" s="32">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="I24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.325E-2</v>
+      </c>
+      <c r="K24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6750000000000001E-2</v>
+      </c>
+      <c r="L24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.8249999999999999E-2</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="N24" s="32">
+        <f t="shared" si="0"/>
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="O24" s="32">
+        <f t="shared" si="0"/>
+        <v>1.975E-2</v>
+      </c>
+      <c r="P24" s="32">
+        <f t="shared" si="0"/>
+        <v>2.6249999999999999E-2</v>
+      </c>
+      <c r="Q24" s="32">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="R24" s="32">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="S24" s="32">
+        <f t="shared" si="0"/>
+        <v>3.075E-2</v>
+      </c>
+      <c r="T24" s="32">
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="U24" s="32">
+        <f t="shared" si="0"/>
+        <v>3.5749999999999997E-2</v>
+      </c>
+      <c r="V24" s="32">
+        <f t="shared" si="0"/>
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="W24" s="32">
+        <f t="shared" si="0"/>
+        <v>3.2750000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="32">
         <f t="shared" ref="C25:R27" si="1">AVERAGE(C5,C10,C15,C20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="29">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H25" s="29">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="I25" s="29">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="J25" s="29">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L25" s="29">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="M25" s="29">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="N25" s="29">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="O25" s="29">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="P25" s="29">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Q25" s="29">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="R25" s="29">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="S25" s="29">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="T25" s="29">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="U25" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="V25" s="29">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="W25" s="29">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
+      <c r="D25" s="32">
+        <f t="shared" ref="D25:S27" si="2">AVERAGE(D5,D10,D15,D20)/1000</f>
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" si="2"/>
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="2"/>
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="H25" s="32">
+        <f t="shared" si="2"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J25" s="32">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="K25" s="32">
+        <f t="shared" si="2"/>
+        <v>9.2499999999999995E-3</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="M25" s="32">
+        <f t="shared" si="2"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="O25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="P25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="Q25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.375E-2</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="S25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.55E-2</v>
+      </c>
+      <c r="T25" s="32">
+        <f t="shared" si="0"/>
+        <v>1.525E-2</v>
+      </c>
+      <c r="U25" s="32">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="V25" s="32">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="W25" s="32">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="F26" s="29">
-        <f t="shared" si="0"/>
+      <c r="D26" s="32">
+        <f t="shared" si="2"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="J26" s="32">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K26" s="32">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="L26" s="32">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M26" s="32">
+        <f t="shared" si="0"/>
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="P26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="Q26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.15E-2</v>
+      </c>
+      <c r="R26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.35E-2</v>
+      </c>
+      <c r="S26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.025E-2</v>
+      </c>
+      <c r="T26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
+      </c>
+      <c r="V26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W26" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H26" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K26" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L26" s="29">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="M26" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N26" s="29">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="O26" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P26" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Q26" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S26" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T26" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U26" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="V26" s="29">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="W26" s="29">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="29">
+      <c r="C27" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D27" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F27" s="29">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H27" s="29">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="I27" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J27" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K27" s="29">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="L27" s="29">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="M27" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N27" s="29">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="O27" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P27" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q27" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R27" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="S27" s="29">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="T27" s="29">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="U27" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="V27" s="29">
-        <f t="shared" si="0"/>
-        <v>14.5</v>
-      </c>
-      <c r="W27" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="D27" s="32">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-3</v>
+      </c>
+      <c r="J27" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K27" s="32">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="M27" s="32">
+        <f t="shared" si="0"/>
+        <v>7.7499999999999999E-3</v>
+      </c>
+      <c r="N27" s="32">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.025E-2</v>
+      </c>
+      <c r="P27" s="32">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="R27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="S27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="T27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
+      </c>
+      <c r="U27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="V27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.175E-2</v>
+      </c>
+      <c r="W27" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="B3:W3"/>
     <mergeCell ref="B8:W8"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B18:W18"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DAC42-B907-430E-9863-647D773759C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB5B0A-23DD-4016-9D3D-A8C5536BB252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28320" yWindow="3915" windowWidth="21600" windowHeight="11505" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
+    <workbookView xWindow="1920" yWindow="4080" windowWidth="21600" windowHeight="11505" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="7">
   <si>
     <t>Array Size</t>
   </si>
@@ -91,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -464,16 +464,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -492,6 +517,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,16 +549,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -551,6 +580,77 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>MergeSort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> (Java)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -601,43 +701,43 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -649,13 +749,13 @@
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -671,64 +771,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8250000000000003E-2</c:v>
+                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7499999999999999E-3</c:v>
+                  <c:v>4.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2500000000000003E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7500000000000008E-3</c:v>
+                  <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>1.0749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.325E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6750000000000001E-2</c:v>
+                  <c:v>1.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8249999999999999E-2</c:v>
+                  <c:v>1.4749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7250000000000001E-2</c:v>
+                  <c:v>1.55E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0750000000000001E-2</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.975E-2</c:v>
+                  <c:v>1.95E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6249999999999999E-2</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4500000000000001E-2</c:v>
+                  <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.075E-2</c:v>
+                  <c:v>2.5749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>2.725E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5749999999999997E-2</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5249999999999997E-2</c:v>
+                  <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2750000000000001E-2</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,43 +884,43 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -832,13 +932,13 @@
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -854,64 +954,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2499999999999999E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2499999999999998E-3</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2500000000000003E-3</c:v>
+                  <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2500000000000003E-3</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7499999999999999E-3</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>6.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2500000000000004E-3</c:v>
+                  <c:v>6.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2499999999999995E-3</c:v>
+                  <c:v>7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4999999999999998E-3</c:v>
+                  <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2749999999999999E-2</c:v>
+                  <c:v>1.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2749999999999999E-2</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4500000000000001E-2</c:v>
+                  <c:v>1.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.375E-2</c:v>
+                  <c:v>1.7500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.95E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0500000000000001E-2</c:v>
+                  <c:v>2.0750000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.02</c:v>
+                  <c:v>1.8249999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,43 +1067,43 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -1015,13 +1115,13 @@
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1037,64 +1137,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7499999999999998E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4999999999999997E-3</c:v>
+                  <c:v>4.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.2500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.7500000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.025E-2</c:v>
+                  <c:v>9.75E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1.225E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.225E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>1.225E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,43 +1250,43 @@
                 <c:pt idx="1">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="General">
+                <c:pt idx="6">
                   <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>70000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="8">
                   <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="12">
                   <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>130000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="14">
                   <c:v>140000</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -1198,13 +1298,13 @@
                 <c:pt idx="17">
                   <c:v>170000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="18">
                   <c:v>180000</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>190000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1220,64 +1320,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.75E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4999999999999997E-3</c:v>
+                  <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.4999999999999997E-3</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>7.2500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7499999999999999E-3</c:v>
+                  <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>6.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.225E-2</c:v>
+                  <c:v>1.175E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2749999999999999E-2</c:v>
+                  <c:v>1.325E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.175E-2</c:v>
+                  <c:v>1.15E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>1.35E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,6 +1408,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Array Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1330,7 +1483,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1372,6 +1525,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time [Sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1388,7 +1594,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1414,6 +1620,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1456,7 +1692,1219 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1500"/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>MergeSort (Java)</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread - 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$57:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$79:$W$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25924999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32424999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53774999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76324999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85824999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97BD-43DE-BC71-97F80D67F0D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread - 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$57:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$80:$W$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14025000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.25324999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31824999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36975000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40075</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45074999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44424999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97BD-43DE-BC71-97F80D67F0D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread - 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$57:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$81:$W$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9750000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17474999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29049999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97BD-43DE-BC71-97F80D67F0D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thread - 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$C$57:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$82:$W$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.775E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.475E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9749999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18174999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1835</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2235</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19625000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97BD-43DE-BC71-97F80D67F0D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464756736"/>
+        <c:axId val="464757064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464756736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Array Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464757064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464757064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="85000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1800" b="1" i="0" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time [Sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="85000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464756736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500"/>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -1470,6 +2918,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2005,6 +3493,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2038,6 +4022,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8658</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DB36B6-F091-4516-B986-834C58685032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2343,10 +4363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24E47AE-0AB6-47AB-B073-B50DBA22BCC6}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,52 +4377,52 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>10000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>20000</v>
       </c>
       <c r="F2" s="3">
         <v>30000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>40000</v>
       </c>
       <c r="H2" s="3">
         <v>50000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>60000</v>
       </c>
       <c r="J2" s="3">
         <v>70000</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>80000</v>
       </c>
       <c r="L2" s="3">
         <v>90000</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>100000</v>
       </c>
       <c r="N2" s="3">
         <v>110000</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="3">
         <v>120000</v>
       </c>
       <c r="P2" s="3">
         <v>130000</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>140000</v>
       </c>
       <c r="R2" s="3">
@@ -2414,142 +4434,142 @@
       <c r="T2" s="3">
         <v>170000</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="3">
         <v>180000</v>
       </c>
       <c r="V2" s="3">
         <v>190000</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="27">
         <v>200000</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="34"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
-        <v>68</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="5">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5">
-        <v>8</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4">
         <v>14</v>
       </c>
-      <c r="J4" s="5">
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4">
         <v>14</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="4">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <v>15</v>
+      </c>
+      <c r="N4" s="4">
         <v>16</v>
       </c>
-      <c r="L4" s="5">
-        <v>18</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="O4" s="4">
         <v>19</v>
       </c>
-      <c r="N4" s="5">
-        <v>27</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="P4" s="4">
         <v>22</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="4">
         <v>19</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="4">
         <v>22</v>
       </c>
-      <c r="R4" s="5">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5">
-        <v>35</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="S4" s="4">
+        <v>23</v>
+      </c>
+      <c r="T4" s="4">
+        <v>25</v>
+      </c>
+      <c r="U4" s="4">
+        <v>32</v>
+      </c>
+      <c r="V4" s="4">
+        <v>38</v>
+      </c>
+      <c r="W4" s="16">
         <v>29</v>
-      </c>
-      <c r="U4" s="5">
-        <v>34</v>
-      </c>
-      <c r="V4" s="5">
-        <v>33</v>
-      </c>
-      <c r="W4" s="17">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1">
         <v>8</v>
@@ -2558,55 +4578,55 @@
         <v>9</v>
       </c>
       <c r="N5" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O5" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="1">
         <v>13</v>
       </c>
       <c r="R5" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S5" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T5" s="1">
+        <v>14</v>
+      </c>
+      <c r="U5" s="1">
+        <v>19</v>
+      </c>
+      <c r="V5" s="1">
+        <v>23</v>
+      </c>
+      <c r="W5" s="17">
         <v>17</v>
-      </c>
-      <c r="U5" s="1">
-        <v>20</v>
-      </c>
-      <c r="V5" s="1">
-        <v>21</v>
-      </c>
-      <c r="W5" s="18">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
       <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -2615,829 +4635,829 @@
         <v>5</v>
       </c>
       <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1">
         <v>6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
-        <v>9</v>
       </c>
       <c r="M6" s="1">
         <v>8</v>
       </c>
       <c r="N6" s="1">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="1">
+        <v>9</v>
+      </c>
+      <c r="T6" s="1">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>13</v>
+      </c>
+      <c r="V6" s="1">
         <v>12</v>
       </c>
-      <c r="O6" s="1">
+      <c r="W6" s="17">
         <v>12</v>
-      </c>
-      <c r="P6" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>11</v>
-      </c>
-      <c r="R6" s="1">
-        <v>9</v>
-      </c>
-      <c r="S6" s="1">
-        <v>13</v>
-      </c>
-      <c r="T6" s="1">
-        <v>14</v>
-      </c>
-      <c r="U6" s="1">
-        <v>11</v>
-      </c>
-      <c r="V6" s="1">
-        <v>13</v>
-      </c>
-      <c r="W6" s="18">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14">
         <v>7</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="14">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14">
         <v>5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="J7" s="14">
         <v>4</v>
       </c>
-      <c r="I7" s="15">
+      <c r="K7" s="14">
+        <v>9</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5</v>
+      </c>
+      <c r="M7" s="14">
         <v>6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="N7" s="14">
+        <v>7</v>
+      </c>
+      <c r="O7" s="14">
         <v>9</v>
       </c>
-      <c r="K7" s="15">
-        <v>7</v>
-      </c>
-      <c r="L7" s="15">
-        <v>9</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="P7" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>8</v>
+      </c>
+      <c r="R7" s="14">
         <v>10</v>
       </c>
-      <c r="N7" s="15">
-        <v>9</v>
-      </c>
-      <c r="O7" s="15">
-        <v>9</v>
-      </c>
-      <c r="P7" s="15">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>9</v>
-      </c>
-      <c r="R7" s="15">
-        <v>16</v>
-      </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
+        <v>10</v>
+      </c>
+      <c r="T7" s="14">
+        <v>11</v>
+      </c>
+      <c r="U7" s="14">
         <v>12</v>
       </c>
-      <c r="T7" s="15">
-        <v>13</v>
-      </c>
-      <c r="U7" s="15">
+      <c r="V7" s="14">
+        <v>10</v>
+      </c>
+      <c r="W7" s="18">
         <v>12</v>
-      </c>
-      <c r="V7" s="15">
-        <v>17</v>
-      </c>
-      <c r="W7" s="19">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="5">
-        <v>55</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" s="5">
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
         <v>13</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4">
         <v>14</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="4">
+        <v>15</v>
+      </c>
+      <c r="N9" s="4">
+        <v>18</v>
+      </c>
+      <c r="O9" s="4">
+        <v>18</v>
+      </c>
+      <c r="P9" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>22</v>
+      </c>
+      <c r="R9" s="4">
         <v>21</v>
       </c>
-      <c r="L9" s="5">
-        <v>23</v>
-      </c>
-      <c r="M9" s="5">
-        <v>18</v>
-      </c>
-      <c r="N9" s="5">
-        <v>21</v>
-      </c>
-      <c r="O9" s="5">
-        <v>21</v>
-      </c>
-      <c r="P9" s="5">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>28</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="S9" s="4">
+        <v>27</v>
+      </c>
+      <c r="T9" s="4">
+        <v>29</v>
+      </c>
+      <c r="U9" s="4">
+        <v>38</v>
+      </c>
+      <c r="V9" s="4">
+        <v>39</v>
+      </c>
+      <c r="W9" s="16">
         <v>34</v>
-      </c>
-      <c r="S9" s="5">
-        <v>32</v>
-      </c>
-      <c r="T9" s="5">
-        <v>25</v>
-      </c>
-      <c r="U9" s="5">
-        <v>34</v>
-      </c>
-      <c r="V9" s="5">
-        <v>34</v>
-      </c>
-      <c r="W9" s="17">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N10" s="1">
         <v>10</v>
       </c>
       <c r="O10" s="1">
+        <v>11</v>
+      </c>
+      <c r="P10" s="1">
         <v>14</v>
       </c>
-      <c r="P10" s="1">
-        <v>19</v>
-      </c>
       <c r="Q10" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R10" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="S10" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T10" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V10" s="1">
-        <v>20</v>
-      </c>
-      <c r="W10" s="18">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="W10" s="17">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
       <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
       </c>
       <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1">
         <v>7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1">
-        <v>9</v>
       </c>
       <c r="N11" s="1">
         <v>7</v>
       </c>
       <c r="O11" s="1">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>9</v>
+      </c>
+      <c r="R11" s="1">
         <v>12</v>
       </c>
-      <c r="P11" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>11</v>
+      </c>
+      <c r="U11" s="1">
+        <v>13</v>
+      </c>
+      <c r="V11" s="1">
+        <v>14</v>
+      </c>
+      <c r="W11" s="17">
         <v>12</v>
-      </c>
-      <c r="R11" s="1">
-        <v>27</v>
-      </c>
-      <c r="S11" s="1">
-        <v>9</v>
-      </c>
-      <c r="T11" s="1">
-        <v>9</v>
-      </c>
-      <c r="U11" s="1">
-        <v>12</v>
-      </c>
-      <c r="V11" s="1">
-        <v>10</v>
-      </c>
-      <c r="W11" s="18">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="15">
-        <v>4</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="E12" s="14">
         <v>3</v>
       </c>
-      <c r="H12" s="15">
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
         <v>5</v>
       </c>
-      <c r="I12" s="15">
+      <c r="H12" s="14">
         <v>6</v>
       </c>
-      <c r="J12" s="15">
-        <v>4</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="I12" s="14">
+        <v>5</v>
+      </c>
+      <c r="J12" s="14">
+        <v>5</v>
+      </c>
+      <c r="K12" s="14">
+        <v>7</v>
+      </c>
+      <c r="L12" s="14">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14">
+        <v>6</v>
+      </c>
+      <c r="N12" s="14">
+        <v>6</v>
+      </c>
+      <c r="O12" s="14">
         <v>9</v>
       </c>
-      <c r="L12" s="15">
-        <v>7</v>
-      </c>
-      <c r="M12" s="15">
-        <v>7</v>
-      </c>
-      <c r="N12" s="15">
+      <c r="P12" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="14">
         <v>9</v>
       </c>
-      <c r="O12" s="15">
+      <c r="R12" s="14">
+        <v>11</v>
+      </c>
+      <c r="S12" s="14">
+        <v>10</v>
+      </c>
+      <c r="T12" s="14">
+        <v>11</v>
+      </c>
+      <c r="U12" s="14">
+        <v>14</v>
+      </c>
+      <c r="V12" s="14">
         <v>12</v>
       </c>
-      <c r="P12" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>12</v>
-      </c>
-      <c r="R12" s="15">
-        <v>19</v>
-      </c>
-      <c r="S12" s="15">
-        <v>9</v>
-      </c>
-      <c r="T12" s="15">
-        <v>11</v>
-      </c>
-      <c r="U12" s="15">
-        <v>14</v>
-      </c>
-      <c r="V12" s="15">
-        <v>10</v>
-      </c>
-      <c r="W12" s="19">
-        <v>9</v>
+      <c r="W12" s="18">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="37"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="5">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="4">
         <v>8</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4">
         <v>12</v>
       </c>
-      <c r="H14" s="5">
-        <v>11</v>
-      </c>
-      <c r="I14" s="5">
-        <v>12</v>
-      </c>
-      <c r="J14" s="5">
-        <v>14</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
+        <v>17</v>
+      </c>
+      <c r="L14" s="4">
         <v>16</v>
       </c>
-      <c r="L14" s="5">
-        <v>16</v>
-      </c>
-      <c r="M14" s="5">
-        <v>17</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="4">
+        <v>18</v>
+      </c>
+      <c r="N14" s="4">
         <v>19</v>
       </c>
-      <c r="O14" s="5">
-        <v>20</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="O14" s="4">
+        <v>23</v>
+      </c>
+      <c r="P14" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>23</v>
+      </c>
+      <c r="R14" s="4">
         <v>29</v>
       </c>
-      <c r="Q14" s="5">
-        <v>26</v>
-      </c>
-      <c r="R14" s="5">
-        <v>30</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="S14" s="4">
+        <v>27</v>
+      </c>
+      <c r="T14" s="4">
         <v>29</v>
       </c>
-      <c r="T14" s="5">
-        <v>30</v>
-      </c>
-      <c r="U14" s="5">
-        <v>43</v>
-      </c>
-      <c r="V14" s="5">
-        <v>38</v>
-      </c>
-      <c r="W14" s="17">
-        <v>28</v>
+      <c r="U14" s="4">
+        <v>41</v>
+      </c>
+      <c r="V14" s="4">
+        <v>42</v>
+      </c>
+      <c r="W14" s="16">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
       <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
         <v>5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6</v>
       </c>
       <c r="I15" s="1">
         <v>7</v>
       </c>
       <c r="J15" s="1">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="1">
-        <v>8</v>
-      </c>
       <c r="M15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O15" s="1">
         <v>13</v>
       </c>
       <c r="P15" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="1">
         <v>14</v>
       </c>
       <c r="R15" s="1">
+        <v>15</v>
+      </c>
+      <c r="S15" s="1">
+        <v>13</v>
+      </c>
+      <c r="T15" s="1">
         <v>18</v>
       </c>
-      <c r="S15" s="1">
-        <v>16</v>
-      </c>
-      <c r="T15" s="1">
-        <v>17</v>
-      </c>
       <c r="U15" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V15" s="1">
-        <v>21</v>
-      </c>
-      <c r="W15" s="18">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="W15" s="17">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
         <v>6</v>
       </c>
-      <c r="G16" s="1">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6</v>
-      </c>
-      <c r="I16" s="1">
-        <v>6</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
+        <v>8</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>9</v>
+      </c>
+      <c r="P16" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>9</v>
+      </c>
+      <c r="R16" s="1">
+        <v>9</v>
+      </c>
+      <c r="S16" s="1">
         <v>11</v>
       </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1">
-        <v>6</v>
-      </c>
-      <c r="N16" s="1">
-        <v>8</v>
-      </c>
-      <c r="O16" s="1">
+      <c r="T16" s="1">
+        <v>10</v>
+      </c>
+      <c r="U16" s="1">
+        <v>13</v>
+      </c>
+      <c r="V16" s="1">
         <v>11</v>
       </c>
-      <c r="P16" s="1">
+      <c r="W16" s="17">
         <v>12</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>11</v>
-      </c>
-      <c r="R16" s="1">
-        <v>10</v>
-      </c>
-      <c r="S16" s="1">
-        <v>10</v>
-      </c>
-      <c r="T16" s="1">
-        <v>11</v>
-      </c>
-      <c r="U16" s="1">
-        <v>14</v>
-      </c>
-      <c r="V16" s="1">
-        <v>9</v>
-      </c>
-      <c r="W16" s="18">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
         <v>4</v>
       </c>
-      <c r="E17" s="15">
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
         <v>4</v>
       </c>
-      <c r="F17" s="15">
+      <c r="I17" s="14">
+        <v>5</v>
+      </c>
+      <c r="J17" s="14">
+        <v>7</v>
+      </c>
+      <c r="K17" s="14">
+        <v>7</v>
+      </c>
+      <c r="L17" s="14">
+        <v>8</v>
+      </c>
+      <c r="M17" s="14">
+        <v>7</v>
+      </c>
+      <c r="N17" s="14">
+        <v>6</v>
+      </c>
+      <c r="O17" s="14">
+        <v>9</v>
+      </c>
+      <c r="P17" s="14">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>8</v>
+      </c>
+      <c r="R17" s="14">
         <v>10</v>
       </c>
-      <c r="G17" s="15">
-        <v>9</v>
-      </c>
-      <c r="H17" s="15">
-        <v>4</v>
-      </c>
-      <c r="I17" s="15">
-        <v>12</v>
-      </c>
-      <c r="J17" s="15">
-        <v>6</v>
-      </c>
-      <c r="K17" s="15">
-        <v>5</v>
-      </c>
-      <c r="L17" s="15">
-        <v>6</v>
-      </c>
-      <c r="M17" s="15">
-        <v>7</v>
-      </c>
-      <c r="N17" s="15">
-        <v>8</v>
-      </c>
-      <c r="O17" s="15">
-        <v>12</v>
-      </c>
-      <c r="P17" s="15">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>9</v>
-      </c>
-      <c r="R17" s="15">
+      <c r="S17" s="14">
+        <v>10</v>
+      </c>
+      <c r="T17" s="14">
         <v>13</v>
       </c>
-      <c r="S17" s="15">
+      <c r="U17" s="14">
+        <v>16</v>
+      </c>
+      <c r="V17" s="14">
+        <v>11</v>
+      </c>
+      <c r="W17" s="18">
         <v>13</v>
-      </c>
-      <c r="T17" s="15">
-        <v>13</v>
-      </c>
-      <c r="U17" s="15">
-        <v>13</v>
-      </c>
-      <c r="V17" s="15">
-        <v>9</v>
-      </c>
-      <c r="W17" s="19">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="28"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="37"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="5">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="5">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="4">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4">
         <v>11</v>
       </c>
-      <c r="J19" s="5">
-        <v>11</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="J19" s="4">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4">
+        <v>12</v>
+      </c>
+      <c r="L19" s="4">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4">
         <v>14</v>
       </c>
-      <c r="L19" s="5">
-        <v>16</v>
-      </c>
-      <c r="M19" s="5">
+      <c r="N19" s="4">
         <v>15</v>
       </c>
-      <c r="N19" s="5">
-        <v>16</v>
-      </c>
-      <c r="O19" s="5">
-        <v>16</v>
-      </c>
-      <c r="P19" s="5">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>22</v>
-      </c>
-      <c r="R19" s="5">
+      <c r="O19" s="4">
+        <v>18</v>
+      </c>
+      <c r="P19" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>18</v>
+      </c>
+      <c r="R19" s="4">
+        <v>24</v>
+      </c>
+      <c r="S19" s="4">
         <v>26</v>
       </c>
-      <c r="S19" s="5">
-        <v>27</v>
-      </c>
-      <c r="T19" s="5">
-        <v>24</v>
-      </c>
-      <c r="U19" s="5">
-        <v>32</v>
-      </c>
-      <c r="V19" s="5">
-        <v>36</v>
-      </c>
-      <c r="W19" s="17">
-        <v>30</v>
+      <c r="T19" s="4">
+        <v>26</v>
+      </c>
+      <c r="U19" s="4">
+        <v>29</v>
+      </c>
+      <c r="V19" s="4">
+        <v>31</v>
+      </c>
+      <c r="W19" s="16">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -3449,7 +5469,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -3467,42 +5487,42 @@
         <v>8</v>
       </c>
       <c r="N20" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P20" s="1">
         <v>11</v>
       </c>
       <c r="Q20" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R20" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S20" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T20" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U20" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V20" s="1">
-        <v>20</v>
-      </c>
-      <c r="W20" s="18">
         <v>17</v>
+      </c>
+      <c r="W20" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>0</v>
       </c>
       <c r="D21" s="1">
@@ -3512,496 +5532,2150 @@
         <v>2</v>
       </c>
       <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1">
-        <v>3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>5</v>
       </c>
-      <c r="K21" s="1">
-        <v>6</v>
-      </c>
       <c r="L21" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M21" s="1">
         <v>6</v>
       </c>
       <c r="N21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P21" s="1">
         <v>8</v>
       </c>
       <c r="Q21" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R21" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S21" s="1">
         <v>9</v>
       </c>
       <c r="T21" s="1">
+        <v>9</v>
+      </c>
+      <c r="U21" s="1">
         <v>10</v>
-      </c>
-      <c r="U21" s="1">
-        <v>12</v>
       </c>
       <c r="V21" s="1">
         <v>12</v>
       </c>
-      <c r="W21" s="18">
-        <v>11</v>
+      <c r="W21" s="17">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>0</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>5</v>
+      </c>
+      <c r="F22" s="20">
         <v>2</v>
       </c>
-      <c r="E22" s="21">
-        <v>2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>5</v>
-      </c>
-      <c r="G22" s="21">
-        <v>3</v>
-      </c>
-      <c r="H22" s="21">
-        <v>3</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="G22" s="20">
+        <v>4</v>
+      </c>
+      <c r="H22" s="20">
+        <v>4</v>
+      </c>
+      <c r="I22" s="20">
+        <v>4</v>
+      </c>
+      <c r="J22" s="20">
+        <v>4</v>
+      </c>
+      <c r="K22" s="20">
+        <v>6</v>
+      </c>
+      <c r="L22" s="20">
         <v>7</v>
       </c>
-      <c r="J22" s="21">
+      <c r="M22" s="20">
+        <v>6</v>
+      </c>
+      <c r="N22" s="20">
         <v>7</v>
       </c>
-      <c r="K22" s="21">
+      <c r="O22" s="20">
         <v>7</v>
       </c>
-      <c r="L22" s="21">
-        <v>5</v>
-      </c>
-      <c r="M22" s="21">
+      <c r="P22" s="20">
         <v>7</v>
       </c>
-      <c r="N22" s="21">
-        <v>6</v>
-      </c>
-      <c r="O22" s="21">
-        <v>8</v>
-      </c>
-      <c r="P22" s="21">
-        <v>7</v>
-      </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="20">
+        <v>9</v>
+      </c>
+      <c r="R22" s="20">
+        <v>16</v>
+      </c>
+      <c r="S22" s="20">
         <v>12</v>
       </c>
-      <c r="R22" s="21">
-        <v>10</v>
-      </c>
-      <c r="S22" s="21">
-        <v>9</v>
-      </c>
-      <c r="T22" s="21">
+      <c r="T22" s="20">
         <v>12</v>
       </c>
-      <c r="U22" s="21">
-        <v>12</v>
-      </c>
-      <c r="V22" s="21">
+      <c r="U22" s="20">
         <v>11</v>
       </c>
-      <c r="W22" s="22">
-        <v>12</v>
+      <c r="V22" s="20">
+        <v>13</v>
+      </c>
+      <c r="W22" s="21">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="22"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="24">
         <f>AVERAGE(C4,C9,C14,C19)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="24">
         <f>AVERAGE(D4,D9,D14,D19)/1000</f>
-        <v>5.8250000000000003E-2</v>
-      </c>
-      <c r="E24" s="32">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="E24" s="24">
         <f t="shared" ref="E24:W27" si="0">AVERAGE(E4,E9,E14,E19)/1000</f>
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="F24" s="32">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="24">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="K24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.375E-2</v>
+      </c>
+      <c r="L24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="M24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.55E-2</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="P24" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="R24" s="24">
+        <f t="shared" si="0"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="S24" s="24">
+        <f t="shared" si="0"/>
+        <v>2.5749999999999999E-2</v>
+      </c>
+      <c r="T24" s="24">
+        <f t="shared" si="0"/>
+        <v>2.725E-2</v>
+      </c>
+      <c r="U24" s="24">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="V24" s="24">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="W24" s="28">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" ref="C25:C27" si="1">AVERAGE(C5,C10,C15,C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" ref="D25:S27" si="2">AVERAGE(D5,D10,D15,D20)/1000</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="2"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="K25" s="24">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="L25" s="24">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="M25" s="24">
+        <f t="shared" si="2"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.125E-2</v>
+      </c>
+      <c r="O25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.375E-2</v>
+      </c>
+      <c r="Q25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="R25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="S25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="T25" s="24">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="U25" s="24">
+        <f t="shared" si="0"/>
+        <v>1.95E-2</v>
+      </c>
+      <c r="V25" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0750000000000001E-2</v>
+      </c>
+      <c r="W25" s="28">
+        <f t="shared" si="0"/>
+        <v>1.8249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+      <c r="B26" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="0"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="L26" s="24">
         <f t="shared" si="0"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="G24" s="32">
+      <c r="M26" s="24">
+        <f t="shared" si="0"/>
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="Q26" s="24">
         <f t="shared" si="0"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="H24" s="32">
+      <c r="R26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="S26" s="24">
+        <f t="shared" si="0"/>
+        <v>9.75E-3</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="0"/>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
+      </c>
+      <c r="W26" s="28">
+        <f t="shared" si="0"/>
+        <v>1.225E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="29">
+        <f t="shared" si="2"/>
+        <v>1.75E-3</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="29">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="H27" s="29">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I27" s="29">
+        <f t="shared" si="0"/>
+        <v>4.7499999999999999E-3</v>
+      </c>
+      <c r="J27" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K27" s="29">
+        <f t="shared" si="0"/>
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="0"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="M27" s="29">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="N27" s="29">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O27" s="29">
         <f t="shared" si="0"/>
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="I24" s="32">
+      <c r="P27" s="29">
         <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="J24" s="32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q27" s="29">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="R27" s="29">
+        <f t="shared" si="0"/>
+        <v>1.175E-2</v>
+      </c>
+      <c r="S27" s="29">
+        <f t="shared" si="0"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="T27" s="29">
+        <f t="shared" si="0"/>
+        <v>1.175E-2</v>
+      </c>
+      <c r="U27" s="29">
         <f t="shared" si="0"/>
         <v>1.325E-2</v>
       </c>
-      <c r="K24" s="32">
-        <f t="shared" si="0"/>
-        <v>1.6750000000000001E-2</v>
-      </c>
-      <c r="L24" s="32">
-        <f t="shared" si="0"/>
-        <v>1.8249999999999999E-2</v>
-      </c>
-      <c r="M24" s="32">
-        <f t="shared" si="0"/>
-        <v>1.7250000000000001E-2</v>
-      </c>
-      <c r="N24" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0750000000000001E-2</v>
-      </c>
-      <c r="O24" s="32">
-        <f t="shared" si="0"/>
-        <v>1.975E-2</v>
-      </c>
-      <c r="P24" s="32">
-        <f t="shared" si="0"/>
-        <v>2.6249999999999999E-2</v>
-      </c>
-      <c r="Q24" s="32">
-        <f t="shared" si="0"/>
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="R24" s="32">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="S24" s="32">
-        <f t="shared" si="0"/>
-        <v>3.075E-2</v>
-      </c>
-      <c r="T24" s="32">
-        <f t="shared" si="0"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="U24" s="32">
-        <f t="shared" si="0"/>
-        <v>3.5749999999999997E-2</v>
-      </c>
-      <c r="V24" s="32">
-        <f t="shared" si="0"/>
-        <v>3.5249999999999997E-2</v>
-      </c>
-      <c r="W24" s="32">
-        <f t="shared" si="0"/>
-        <v>3.2750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="32">
-        <f t="shared" ref="C25:R27" si="1">AVERAGE(C5,C10,C15,C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="32">
-        <f t="shared" ref="D25:S27" si="2">AVERAGE(D5,D10,D15,D20)/1000</f>
-        <v>3.2499999999999999E-3</v>
-      </c>
-      <c r="E25" s="32">
-        <f t="shared" si="2"/>
-        <v>2.2499999999999998E-3</v>
-      </c>
-      <c r="F25" s="32">
-        <f t="shared" si="2"/>
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="G25" s="32">
-        <f t="shared" si="2"/>
-        <v>5.2500000000000003E-3</v>
-      </c>
-      <c r="H25" s="32">
-        <f t="shared" si="2"/>
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="I25" s="32">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J25" s="32">
-        <f t="shared" si="2"/>
-        <v>8.2500000000000004E-3</v>
-      </c>
-      <c r="K25" s="32">
-        <f t="shared" si="2"/>
-        <v>9.2499999999999995E-3</v>
-      </c>
-      <c r="L25" s="32">
-        <f t="shared" si="2"/>
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="M25" s="32">
-        <f t="shared" si="2"/>
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="N25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="O25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="P25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="Q25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.375E-2</v>
-      </c>
-      <c r="R25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.95E-2</v>
-      </c>
-      <c r="S25" s="32">
-        <f t="shared" si="2"/>
-        <v>1.55E-2</v>
-      </c>
-      <c r="T25" s="32">
-        <f t="shared" si="0"/>
-        <v>1.525E-2</v>
-      </c>
-      <c r="U25" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="V25" s="32">
-        <f t="shared" si="0"/>
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="W25" s="32">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="32">
-        <f t="shared" si="2"/>
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="E26" s="32">
-        <f t="shared" si="0"/>
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="F26" s="32">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G26" s="32">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H26" s="32">
-        <f t="shared" si="0"/>
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="I26" s="32">
-        <f t="shared" si="0"/>
-        <v>4.7499999999999999E-3</v>
-      </c>
-      <c r="J26" s="32">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K26" s="32">
-        <f t="shared" si="0"/>
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="L26" s="32">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M26" s="32">
-        <f t="shared" si="0"/>
-        <v>7.2500000000000004E-3</v>
-      </c>
-      <c r="N26" s="32">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="P26" s="32">
+      <c r="V27" s="29">
         <f t="shared" si="0"/>
         <v>1.15E-2</v>
       </c>
-      <c r="Q26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.15E-2</v>
-      </c>
-      <c r="R26" s="32">
+      <c r="W27" s="30">
         <f t="shared" si="0"/>
         <v>1.35E-2</v>
       </c>
-      <c r="S26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.025E-2</v>
-      </c>
-      <c r="T26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="U26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.225E-2</v>
-      </c>
-      <c r="V26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="W26" s="32">
-        <f t="shared" si="0"/>
-        <v>1.2500000000000001E-2</v>
-      </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="34" t="s">
+    <row r="56" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E57" s="5">
+        <v>200000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G57" s="5">
+        <v>400000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>500000</v>
+      </c>
+      <c r="I57" s="5">
+        <v>600000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>700000</v>
+      </c>
+      <c r="K57" s="5">
+        <v>800000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900000</v>
+      </c>
+      <c r="M57" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1200000</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="S57" s="5">
+        <v>1600000</v>
+      </c>
+      <c r="T57" s="3">
+        <v>1700000</v>
+      </c>
+      <c r="U57" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="V57" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="W57" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="34"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>42</v>
+      </c>
+      <c r="E59" s="4">
+        <v>97</v>
+      </c>
+      <c r="F59" s="4">
+        <v>115</v>
+      </c>
+      <c r="G59" s="4">
+        <v>158</v>
+      </c>
+      <c r="H59" s="4">
+        <v>226</v>
+      </c>
+      <c r="I59" s="4">
+        <v>267</v>
+      </c>
+      <c r="J59" s="4">
+        <v>240</v>
+      </c>
+      <c r="K59" s="4">
+        <v>290</v>
+      </c>
+      <c r="L59" s="4">
+        <v>403</v>
+      </c>
+      <c r="M59" s="4">
+        <v>431</v>
+      </c>
+      <c r="N59" s="4">
+        <v>512</v>
+      </c>
+      <c r="O59" s="4">
+        <v>253</v>
+      </c>
+      <c r="P59" s="4">
+        <v>535</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>597</v>
+      </c>
+      <c r="R59" s="4">
+        <v>933</v>
+      </c>
+      <c r="S59" s="4">
+        <v>635</v>
+      </c>
+      <c r="T59" s="4">
+        <v>706</v>
+      </c>
+      <c r="U59" s="4">
+        <v>782</v>
+      </c>
+      <c r="V59" s="4">
+        <v>823</v>
+      </c>
+      <c r="W59" s="16">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1">
+        <v>63</v>
+      </c>
+      <c r="G60" s="1">
+        <v>95</v>
+      </c>
+      <c r="H60" s="1">
+        <v>126</v>
+      </c>
+      <c r="I60" s="1">
+        <v>156</v>
+      </c>
+      <c r="J60" s="1">
+        <v>133</v>
+      </c>
+      <c r="K60" s="1">
+        <v>187</v>
+      </c>
+      <c r="L60" s="1">
+        <v>199</v>
+      </c>
+      <c r="M60" s="1">
+        <v>249</v>
+      </c>
+      <c r="N60" s="1">
+        <v>250</v>
+      </c>
+      <c r="O60" s="1">
+        <v>244</v>
+      </c>
+      <c r="P60" s="1">
+        <v>298</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>311</v>
+      </c>
+      <c r="R60" s="1">
+        <v>432</v>
+      </c>
+      <c r="S60" s="1">
+        <v>315</v>
+      </c>
+      <c r="T60" s="1">
+        <v>431</v>
+      </c>
+      <c r="U60" s="1">
+        <v>413</v>
+      </c>
+      <c r="V60" s="1">
+        <v>452</v>
+      </c>
+      <c r="W60" s="17">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>28</v>
+      </c>
+      <c r="F61" s="1">
+        <v>43</v>
+      </c>
+      <c r="G61" s="1">
+        <v>67</v>
+      </c>
+      <c r="H61" s="1">
+        <v>70</v>
+      </c>
+      <c r="I61" s="1">
+        <v>142</v>
+      </c>
+      <c r="J61" s="1">
+        <v>101</v>
+      </c>
+      <c r="K61" s="1">
+        <v>128</v>
+      </c>
+      <c r="L61" s="1">
+        <v>121</v>
+      </c>
+      <c r="M61" s="1">
+        <v>144</v>
+      </c>
+      <c r="N61" s="1">
+        <v>201</v>
+      </c>
+      <c r="O61" s="1">
+        <v>163</v>
+      </c>
+      <c r="P61" s="1">
+        <v>195</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>190</v>
+      </c>
+      <c r="R61" s="1">
+        <v>269</v>
+      </c>
+      <c r="S61" s="1">
+        <v>214</v>
+      </c>
+      <c r="T61" s="1">
+        <v>235</v>
+      </c>
+      <c r="U61" s="1">
+        <v>236</v>
+      </c>
+      <c r="V61" s="1">
+        <v>291</v>
+      </c>
+      <c r="W61" s="17">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="32">
-        <f t="shared" si="1"/>
+      <c r="C62" s="13">
         <v>0</v>
       </c>
-      <c r="D27" s="32">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="E27" s="32">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F27" s="32">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="G27" s="32">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H27" s="32">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I27" s="32">
-        <f t="shared" si="0"/>
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="J27" s="32">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K27" s="32">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="L27" s="32">
-        <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="M27" s="32">
-        <f t="shared" si="0"/>
-        <v>7.7499999999999999E-3</v>
-      </c>
-      <c r="N27" s="32">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.025E-2</v>
-      </c>
-      <c r="P27" s="32">
-        <f t="shared" si="0"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="R27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="S27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="T27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.225E-2</v>
-      </c>
-      <c r="U27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.2749999999999999E-2</v>
-      </c>
-      <c r="V27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.175E-2</v>
-      </c>
-      <c r="W27" s="32">
-        <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+      <c r="D62" s="14">
+        <v>23</v>
+      </c>
+      <c r="E62" s="14">
+        <v>22</v>
+      </c>
+      <c r="F62" s="14">
+        <v>34</v>
+      </c>
+      <c r="G62" s="14">
+        <v>66</v>
+      </c>
+      <c r="H62" s="14">
+        <v>67</v>
+      </c>
+      <c r="I62" s="14">
+        <v>83</v>
+      </c>
+      <c r="J62" s="14">
+        <v>91</v>
+      </c>
+      <c r="K62" s="14">
+        <v>116</v>
+      </c>
+      <c r="L62" s="14">
+        <v>84</v>
+      </c>
+      <c r="M62" s="14">
+        <v>163</v>
+      </c>
+      <c r="N62" s="14">
+        <v>180</v>
+      </c>
+      <c r="O62" s="14">
+        <v>117</v>
+      </c>
+      <c r="P62" s="14">
+        <v>123</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>172</v>
+      </c>
+      <c r="R62" s="14">
+        <v>172</v>
+      </c>
+      <c r="S62" s="14">
+        <v>194</v>
+      </c>
+      <c r="T62" s="14">
+        <v>176</v>
+      </c>
+      <c r="U62" s="14">
+        <v>225</v>
+      </c>
+      <c r="V62" s="14">
+        <v>232</v>
+      </c>
+      <c r="W62" s="18">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="36"/>
+      <c r="T63" s="36"/>
+      <c r="U63" s="36"/>
+      <c r="V63" s="36"/>
+      <c r="W63" s="37"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>37</v>
+      </c>
+      <c r="E64" s="4">
+        <v>87</v>
+      </c>
+      <c r="F64" s="4">
+        <v>115</v>
+      </c>
+      <c r="G64" s="4">
+        <v>143</v>
+      </c>
+      <c r="H64" s="4">
+        <v>234</v>
+      </c>
+      <c r="I64" s="4">
+        <v>235</v>
+      </c>
+      <c r="J64" s="4">
+        <v>329</v>
+      </c>
+      <c r="K64" s="4">
+        <v>335</v>
+      </c>
+      <c r="L64" s="4">
+        <v>418</v>
+      </c>
+      <c r="M64" s="4">
+        <v>421</v>
+      </c>
+      <c r="N64" s="4">
+        <v>471</v>
+      </c>
+      <c r="O64" s="4">
+        <v>494</v>
+      </c>
+      <c r="P64" s="4">
+        <v>538</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>604</v>
+      </c>
+      <c r="R64" s="4">
+        <v>748</v>
+      </c>
+      <c r="S64" s="4">
+        <v>669</v>
+      </c>
+      <c r="T64" s="4">
+        <v>781</v>
+      </c>
+      <c r="U64" s="4">
+        <v>774</v>
+      </c>
+      <c r="V64" s="4">
+        <v>801</v>
+      </c>
+      <c r="W64" s="16">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="31"/>
+      <c r="B65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>22</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43</v>
+      </c>
+      <c r="F65" s="1">
+        <v>60</v>
+      </c>
+      <c r="G65" s="1">
+        <v>101</v>
+      </c>
+      <c r="H65" s="1">
+        <v>188</v>
+      </c>
+      <c r="I65" s="1">
+        <v>149</v>
+      </c>
+      <c r="J65" s="1">
+        <v>184</v>
+      </c>
+      <c r="K65" s="1">
+        <v>174</v>
+      </c>
+      <c r="L65" s="1">
+        <v>254</v>
+      </c>
+      <c r="M65" s="1">
+        <v>217</v>
+      </c>
+      <c r="N65" s="1">
+        <v>257</v>
+      </c>
+      <c r="O65" s="1">
+        <v>254</v>
+      </c>
+      <c r="P65" s="1">
+        <v>274</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>320</v>
+      </c>
+      <c r="R65" s="1">
+        <v>354</v>
+      </c>
+      <c r="S65" s="1">
+        <v>382</v>
+      </c>
+      <c r="T65" s="1">
+        <v>400</v>
+      </c>
+      <c r="U65" s="1">
+        <v>415</v>
+      </c>
+      <c r="V65" s="1">
+        <v>442</v>
+      </c>
+      <c r="W65" s="17">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="31"/>
+      <c r="B66" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1">
+        <v>31</v>
+      </c>
+      <c r="F66" s="1">
+        <v>39</v>
+      </c>
+      <c r="G66" s="1">
+        <v>71</v>
+      </c>
+      <c r="H66" s="1">
+        <v>102</v>
+      </c>
+      <c r="I66" s="1">
+        <v>104</v>
+      </c>
+      <c r="J66" s="1">
+        <v>101</v>
+      </c>
+      <c r="K66" s="1">
+        <v>101</v>
+      </c>
+      <c r="L66" s="1">
+        <v>117</v>
+      </c>
+      <c r="M66" s="1">
+        <v>137</v>
+      </c>
+      <c r="N66" s="1">
+        <v>166</v>
+      </c>
+      <c r="O66" s="1">
+        <v>164</v>
+      </c>
+      <c r="P66" s="1">
+        <v>176</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>192</v>
+      </c>
+      <c r="R66" s="1">
+        <v>209</v>
+      </c>
+      <c r="S66" s="1">
+        <v>219</v>
+      </c>
+      <c r="T66" s="1">
+        <v>235</v>
+      </c>
+      <c r="U66" s="1">
+        <v>258</v>
+      </c>
+      <c r="V66" s="1">
+        <v>257</v>
+      </c>
+      <c r="W66" s="17">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="31"/>
+      <c r="B67" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
+        <v>14</v>
+      </c>
+      <c r="E67" s="14">
+        <v>28</v>
+      </c>
+      <c r="F67" s="14">
+        <v>31</v>
+      </c>
+      <c r="G67" s="14">
+        <v>52</v>
+      </c>
+      <c r="H67" s="14">
+        <v>67</v>
+      </c>
+      <c r="I67" s="14">
+        <v>97</v>
+      </c>
+      <c r="J67" s="14">
+        <v>104</v>
+      </c>
+      <c r="K67" s="14">
+        <v>90</v>
+      </c>
+      <c r="L67" s="14">
+        <v>88</v>
+      </c>
+      <c r="M67" s="14">
+        <v>133</v>
+      </c>
+      <c r="N67" s="14">
+        <v>164</v>
+      </c>
+      <c r="O67" s="14">
+        <v>136</v>
+      </c>
+      <c r="P67" s="14">
+        <v>128</v>
+      </c>
+      <c r="Q67" s="14">
+        <v>179</v>
+      </c>
+      <c r="R67" s="14">
+        <v>219</v>
+      </c>
+      <c r="S67" s="14">
+        <v>153</v>
+      </c>
+      <c r="T67" s="14">
+        <v>228</v>
+      </c>
+      <c r="U67" s="14">
+        <v>238</v>
+      </c>
+      <c r="V67" s="14">
+        <v>230</v>
+      </c>
+      <c r="W67" s="18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="37"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>40</v>
+      </c>
+      <c r="E69" s="4">
+        <v>81</v>
+      </c>
+      <c r="F69" s="4">
+        <v>93</v>
+      </c>
+      <c r="G69" s="4">
+        <v>147</v>
+      </c>
+      <c r="H69" s="4">
+        <v>172</v>
+      </c>
+      <c r="I69" s="4">
+        <v>262</v>
+      </c>
+      <c r="J69" s="4">
+        <v>303</v>
+      </c>
+      <c r="K69" s="4">
+        <v>325</v>
+      </c>
+      <c r="L69" s="4">
+        <v>425</v>
+      </c>
+      <c r="M69" s="4">
+        <v>381</v>
+      </c>
+      <c r="N69" s="4">
+        <v>501</v>
+      </c>
+      <c r="O69" s="4">
+        <v>514</v>
+      </c>
+      <c r="P69" s="4">
+        <v>541</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>582</v>
+      </c>
+      <c r="R69" s="4">
+        <v>642</v>
+      </c>
+      <c r="S69" s="4">
+        <v>817</v>
+      </c>
+      <c r="T69" s="4">
+        <v>717</v>
+      </c>
+      <c r="U69" s="4">
+        <v>749</v>
+      </c>
+      <c r="V69" s="4">
+        <v>805</v>
+      </c>
+      <c r="W69" s="16">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1">
+        <v>33</v>
+      </c>
+      <c r="F70" s="1">
+        <v>51</v>
+      </c>
+      <c r="G70" s="1">
+        <v>87</v>
+      </c>
+      <c r="H70" s="1">
+        <v>129</v>
+      </c>
+      <c r="I70" s="1">
+        <v>161</v>
+      </c>
+      <c r="J70" s="1">
+        <v>156</v>
+      </c>
+      <c r="K70" s="1">
+        <v>166</v>
+      </c>
+      <c r="L70" s="1">
+        <v>216</v>
+      </c>
+      <c r="M70" s="1">
+        <v>221</v>
+      </c>
+      <c r="N70" s="1">
+        <v>287</v>
+      </c>
+      <c r="O70" s="1">
+        <v>265</v>
+      </c>
+      <c r="P70" s="1">
+        <v>272</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>323</v>
+      </c>
+      <c r="R70" s="1">
+        <v>337</v>
+      </c>
+      <c r="S70" s="1">
+        <v>416</v>
+      </c>
+      <c r="T70" s="1">
+        <v>387</v>
+      </c>
+      <c r="U70" s="1">
+        <v>428</v>
+      </c>
+      <c r="V70" s="1">
+        <v>447</v>
+      </c>
+      <c r="W70" s="17">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1">
+        <v>31</v>
+      </c>
+      <c r="F71" s="1">
+        <v>32</v>
+      </c>
+      <c r="G71" s="1">
+        <v>66</v>
+      </c>
+      <c r="H71" s="1">
+        <v>69</v>
+      </c>
+      <c r="I71" s="1">
+        <v>103</v>
+      </c>
+      <c r="J71" s="1">
+        <v>94</v>
+      </c>
+      <c r="K71" s="1">
+        <v>105</v>
+      </c>
+      <c r="L71" s="1">
+        <v>139</v>
+      </c>
+      <c r="M71" s="1">
+        <v>136</v>
+      </c>
+      <c r="N71" s="1">
+        <v>158</v>
+      </c>
+      <c r="O71" s="1">
+        <v>163</v>
+      </c>
+      <c r="P71" s="1">
+        <v>162</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>203</v>
+      </c>
+      <c r="R71" s="1">
+        <v>210</v>
+      </c>
+      <c r="S71" s="1">
+        <v>213</v>
+      </c>
+      <c r="T71" s="1">
+        <v>334</v>
+      </c>
+      <c r="U71" s="1">
+        <v>238</v>
+      </c>
+      <c r="V71" s="1">
+        <v>261</v>
+      </c>
+      <c r="W71" s="17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0</v>
+      </c>
+      <c r="D72" s="14">
+        <v>21</v>
+      </c>
+      <c r="E72" s="14">
+        <v>21</v>
+      </c>
+      <c r="F72" s="14">
+        <v>28</v>
+      </c>
+      <c r="G72" s="14">
+        <v>58</v>
+      </c>
+      <c r="H72" s="14">
+        <v>79</v>
+      </c>
+      <c r="I72" s="14">
+        <v>92</v>
+      </c>
+      <c r="J72" s="14">
+        <v>73</v>
+      </c>
+      <c r="K72" s="14">
+        <v>109</v>
+      </c>
+      <c r="L72" s="14">
+        <v>184</v>
+      </c>
+      <c r="M72" s="14">
+        <v>108</v>
+      </c>
+      <c r="N72" s="14">
+        <v>105</v>
+      </c>
+      <c r="O72" s="14">
+        <v>141</v>
+      </c>
+      <c r="P72" s="14">
+        <v>193</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>208</v>
+      </c>
+      <c r="R72" s="14">
+        <v>194</v>
+      </c>
+      <c r="S72" s="14">
+        <v>150</v>
+      </c>
+      <c r="T72" s="14">
+        <v>154</v>
+      </c>
+      <c r="U72" s="14">
+        <v>227</v>
+      </c>
+      <c r="V72" s="14">
+        <v>216</v>
+      </c>
+      <c r="W72" s="18">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="36"/>
+      <c r="W73" s="37"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>37</v>
+      </c>
+      <c r="E74" s="4">
+        <v>91</v>
+      </c>
+      <c r="F74" s="4">
+        <v>124</v>
+      </c>
+      <c r="G74" s="4">
+        <v>166</v>
+      </c>
+      <c r="H74" s="4">
+        <v>196</v>
+      </c>
+      <c r="I74" s="4">
+        <v>273</v>
+      </c>
+      <c r="J74" s="4">
+        <v>267</v>
+      </c>
+      <c r="K74" s="4">
+        <v>347</v>
+      </c>
+      <c r="L74" s="4">
+        <v>393</v>
+      </c>
+      <c r="M74" s="4">
+        <v>414</v>
+      </c>
+      <c r="N74" s="4">
+        <v>476</v>
+      </c>
+      <c r="O74" s="4">
+        <v>547</v>
+      </c>
+      <c r="P74" s="4">
+        <v>537</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>592</v>
+      </c>
+      <c r="R74" s="4">
+        <v>639</v>
+      </c>
+      <c r="S74" s="4">
+        <v>661</v>
+      </c>
+      <c r="T74" s="4">
+        <v>718</v>
+      </c>
+      <c r="U74" s="4">
+        <v>748</v>
+      </c>
+      <c r="V74" s="4">
+        <v>810</v>
+      </c>
+      <c r="W74" s="16">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="31"/>
+      <c r="B75" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>24</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43</v>
+      </c>
+      <c r="F75" s="1">
+        <v>62</v>
+      </c>
+      <c r="G75" s="1">
+        <v>85</v>
+      </c>
+      <c r="H75" s="1">
+        <v>118</v>
+      </c>
+      <c r="I75" s="1">
+        <v>222</v>
+      </c>
+      <c r="J75" s="1">
+        <v>165</v>
+      </c>
+      <c r="K75" s="1">
+        <v>179</v>
+      </c>
+      <c r="L75" s="1">
+        <v>197</v>
+      </c>
+      <c r="M75" s="1">
+        <v>228</v>
+      </c>
+      <c r="N75" s="1">
+        <v>230</v>
+      </c>
+      <c r="O75" s="1">
+        <v>250</v>
+      </c>
+      <c r="P75" s="1">
+        <v>291</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>319</v>
+      </c>
+      <c r="R75" s="1">
+        <v>343</v>
+      </c>
+      <c r="S75" s="1">
+        <v>366</v>
+      </c>
+      <c r="T75" s="1">
+        <v>385</v>
+      </c>
+      <c r="U75" s="1">
+        <v>422</v>
+      </c>
+      <c r="V75" s="1">
+        <v>462</v>
+      </c>
+      <c r="W75" s="17">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="31"/>
+      <c r="B76" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1">
+        <v>32</v>
+      </c>
+      <c r="F76" s="1">
+        <v>39</v>
+      </c>
+      <c r="G76" s="1">
+        <v>72</v>
+      </c>
+      <c r="H76" s="1">
+        <v>67</v>
+      </c>
+      <c r="I76" s="1">
+        <v>168</v>
+      </c>
+      <c r="J76" s="1">
+        <v>103</v>
+      </c>
+      <c r="K76" s="1">
+        <v>125</v>
+      </c>
+      <c r="L76" s="1">
+        <v>119</v>
+      </c>
+      <c r="M76" s="1">
+        <v>134</v>
+      </c>
+      <c r="N76" s="1">
+        <v>174</v>
+      </c>
+      <c r="O76" s="1">
+        <v>158</v>
+      </c>
+      <c r="P76" s="1">
+        <v>183</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>194</v>
+      </c>
+      <c r="R76" s="1">
+        <v>224</v>
+      </c>
+      <c r="S76" s="1">
+        <v>206</v>
+      </c>
+      <c r="T76" s="1">
+        <v>246</v>
+      </c>
+      <c r="U76" s="1">
+        <v>260</v>
+      </c>
+      <c r="V76" s="1">
+        <v>261</v>
+      </c>
+      <c r="W76" s="17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31"/>
+      <c r="B77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="19">
+        <v>0</v>
+      </c>
+      <c r="D77" s="20">
+        <v>23</v>
+      </c>
+      <c r="E77" s="20">
+        <v>40</v>
+      </c>
+      <c r="F77" s="20">
+        <v>34</v>
+      </c>
+      <c r="G77" s="20">
+        <v>43</v>
+      </c>
+      <c r="H77" s="20">
+        <v>87</v>
+      </c>
+      <c r="I77" s="20">
+        <v>87</v>
+      </c>
+      <c r="J77" s="20">
+        <v>117</v>
+      </c>
+      <c r="K77" s="20">
+        <v>96</v>
+      </c>
+      <c r="L77" s="20">
+        <v>86</v>
+      </c>
+      <c r="M77" s="20">
+        <v>160</v>
+      </c>
+      <c r="N77" s="20">
+        <v>137</v>
+      </c>
+      <c r="O77" s="20">
+        <v>112</v>
+      </c>
+      <c r="P77" s="20">
+        <v>128</v>
+      </c>
+      <c r="Q77" s="20">
+        <v>168</v>
+      </c>
+      <c r="R77" s="20">
+        <v>187</v>
+      </c>
+      <c r="S77" s="20">
+        <v>161</v>
+      </c>
+      <c r="T77" s="20">
+        <v>176</v>
+      </c>
+      <c r="U77" s="20">
+        <v>238</v>
+      </c>
+      <c r="V77" s="20">
+        <v>216</v>
+      </c>
+      <c r="W77" s="21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="24">
+        <f>AVERAGE(C59,C64,C69,C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="24">
+        <f>AVERAGE(D59,D64,D69,D74)/1000</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="E79" s="24">
+        <f t="shared" ref="E79:W79" si="3">AVERAGE(E59,E64,E69,E74)/1000</f>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.11175</v>
+      </c>
+      <c r="G79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.1535</v>
+      </c>
+      <c r="H79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.25924999999999998</v>
+      </c>
+      <c r="J79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.28475</v>
+      </c>
+      <c r="K79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.32424999999999998</v>
+      </c>
+      <c r="L79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.40975</v>
+      </c>
+      <c r="M79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.41175</v>
+      </c>
+      <c r="N79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="O79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="P79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.53774999999999995</v>
+      </c>
+      <c r="Q79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.59375</v>
+      </c>
+      <c r="R79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="S79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="T79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.73050000000000004</v>
+      </c>
+      <c r="U79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.76324999999999998</v>
+      </c>
+      <c r="V79" s="24">
+        <f t="shared" si="3"/>
+        <v>0.80974999999999997</v>
+      </c>
+      <c r="W79" s="28">
+        <f t="shared" si="3"/>
+        <v>0.85824999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31"/>
+      <c r="B80" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="24">
+        <f t="shared" ref="C80:C82" si="4">AVERAGE(C60,C65,C70,C75)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="24">
+        <f t="shared" ref="D80:W80" si="5">AVERAGE(D60,D65,D70,D75)/1000</f>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="E80" s="24">
+        <f t="shared" si="5"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F80" s="24">
+        <f t="shared" si="5"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G80" s="24">
+        <f t="shared" si="5"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.14025000000000001</v>
+      </c>
+      <c r="I80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.1595</v>
+      </c>
+      <c r="K80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="L80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.2165</v>
+      </c>
+      <c r="M80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.22875000000000001</v>
+      </c>
+      <c r="N80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.25324999999999998</v>
+      </c>
+      <c r="P80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.28375</v>
+      </c>
+      <c r="Q80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.31824999999999998</v>
+      </c>
+      <c r="R80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="S80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.36975000000000002</v>
+      </c>
+      <c r="T80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.40075</v>
+      </c>
+      <c r="U80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="V80" s="24">
+        <f t="shared" si="5"/>
+        <v>0.45074999999999998</v>
+      </c>
+      <c r="W80" s="28">
+        <f t="shared" si="5"/>
+        <v>0.44424999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31"/>
+      <c r="B81" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D81" s="24">
+        <f t="shared" ref="D81:W81" si="6">AVERAGE(D61,D66,D71,D76)/1000</f>
+        <v>1.925E-2</v>
+      </c>
+      <c r="E81" s="24">
+        <f t="shared" si="6"/>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F81" s="24">
+        <f t="shared" si="6"/>
+        <v>3.8249999999999999E-2</v>
+      </c>
+      <c r="G81" s="24">
+        <f t="shared" si="6"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H81" s="24">
+        <f t="shared" si="6"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.12925</v>
+      </c>
+      <c r="J81" s="24">
+        <f t="shared" si="6"/>
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="K81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.11475</v>
+      </c>
+      <c r="L81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.124</v>
+      </c>
+      <c r="M81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.13775000000000001</v>
+      </c>
+      <c r="N81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.17474999999999999</v>
+      </c>
+      <c r="O81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="Q81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.19475000000000001</v>
+      </c>
+      <c r="R81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="S81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="T81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="U81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.248</v>
+      </c>
+      <c r="V81" s="24">
+        <f t="shared" si="6"/>
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="W81" s="28">
+        <f t="shared" si="6"/>
+        <v>0.29049999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31"/>
+      <c r="B82" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="29">
+        <f t="shared" ref="D82:W82" si="7">AVERAGE(D62,D67,D72,D77)/1000</f>
+        <v>2.0250000000000001E-2</v>
+      </c>
+      <c r="E82" s="29">
+        <f t="shared" si="7"/>
+        <v>2.775E-2</v>
+      </c>
+      <c r="F82" s="29">
+        <f t="shared" si="7"/>
+        <v>3.175E-2</v>
+      </c>
+      <c r="G82" s="29">
+        <f t="shared" si="7"/>
+        <v>5.475E-2</v>
+      </c>
+      <c r="H82" s="29">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I82" s="29">
+        <f t="shared" si="7"/>
+        <v>8.9749999999999996E-2</v>
+      </c>
+      <c r="J82" s="29">
+        <f t="shared" si="7"/>
+        <v>9.6250000000000002E-2</v>
+      </c>
+      <c r="K82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.10274999999999999</v>
+      </c>
+      <c r="L82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.1105</v>
+      </c>
+      <c r="M82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="O82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.1265</v>
+      </c>
+      <c r="P82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.18174999999999999</v>
+      </c>
+      <c r="R82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.193</v>
+      </c>
+      <c r="S82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="T82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.1835</v>
+      </c>
+      <c r="U82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="V82" s="29">
+        <f t="shared" si="7"/>
+        <v>0.2235</v>
+      </c>
+      <c r="W82" s="30">
+        <f t="shared" si="7"/>
+        <v>0.19625000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="18">
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B73:W73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B58:W58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B63:W63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B68:W68"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B3:W3"/>

--- a/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
+++ b/Párhuzamos Algoritmusok/Beadandó/Feladat 1/Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oravj\Desktop\ME_Git\Miskolci_Egyetem\Párhuzamos Algoritmusok\Beadandó\Feladat 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB5B0A-23DD-4016-9D3D-A8C5536BB252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B6BF8D-3BF8-44F9-8F85-4AFA10860A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="4080" windowWidth="21600" windowHeight="11505" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C6724D3-8CDD-455A-80F5-639DE189875E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -531,6 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,15 +547,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3993,16 +3993,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1731</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>204785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4029,16 +4029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>8658</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>204353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4365,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24E47AE-0AB6-47AB-B073-B50DBA22BCC6}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -4445,28 +4445,28 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -4748,28 +4748,28 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -5051,28 +5051,28 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
@@ -5354,28 +5354,28 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
@@ -6090,28 +6090,28 @@
       </c>
     </row>
     <row r="58" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="34"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
+      <c r="T58" s="36"/>
+      <c r="U58" s="36"/>
+      <c r="V58" s="36"/>
+      <c r="W58" s="37"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
@@ -6393,28 +6393,28 @@
     </row>
     <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36"/>
-      <c r="W63" s="37"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="34"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
@@ -6696,28 +6696,28 @@
     </row>
     <row r="68" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="37"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="34"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
@@ -6999,28 +6999,28 @@
     </row>
     <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="22"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="36"/>
-      <c r="P73" s="36"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="36"/>
-      <c r="W73" s="37"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="34"/>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
@@ -7667,6 +7667,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B13:W13"/>
+    <mergeCell ref="B18:W18"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="A69:A72"/>
     <mergeCell ref="B73:W73"/>
     <mergeCell ref="A74:A77"/>
@@ -7676,15 +7685,6 @@
     <mergeCell ref="B63:W63"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="B68:W68"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B13:W13"/>
-    <mergeCell ref="B18:W18"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
